--- a/medicine/Pharmacie/Carbocystéine/Carbocystéine.xlsx
+++ b/medicine/Pharmacie/Carbocystéine/Carbocystéine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carbocyst%C3%A9ine</t>
+          <t>Carbocystéine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La carbocystéine est un mucolytique : il est indiqué en cas d'hypersécrétion bronchique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carbocyst%C3%A9ine</t>
+          <t>Carbocystéine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nom IUPAC : acide (R)-2-amino-3-[(carboxyméthyl)sulfanyl]propanoïque.
 C'est un dérivé d'acide aminé soufré (cystéine).
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carbocyst%C3%A9ine</t>
+          <t>Carbocystéine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il diminue la viscosité des sécrétions bronchiques et facilite ainsi leur évacuation[2]. Par ce biais, il diminue le nombre de décompensations chez le patient porteur d'une broncho-pneumopathie chronique obstructive[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il diminue la viscosité des sécrétions bronchiques et facilite ainsi leur évacuation. Par ce biais, il diminue le nombre de décompensations chez le patient porteur d'une broncho-pneumopathie chronique obstructive.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carbocyst%C3%A9ine</t>
+          <t>Carbocystéine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,12 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il peut également être utilisé en cas de bronchite, de sinusite ou de rhinopharyngite.
-Son utilisation pourrait avoir des effets bénéfiques dans le traitement de l'ichtyose[4].
+Son utilisation pourrait avoir des effets bénéfiques dans le traitement de l'ichtyose.
 </t>
         </is>
       </c>
